--- a/tablaFinal.xlsx
+++ b/tablaFinal.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28926"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer Nitro\Documents\tesis\tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer Nitro\Documents\tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EEE930-E29F-47DF-BB30-207B1DF5C15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{F86E6D4F-1816-4EBA-BCAF-6A31FB305C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A1E4BE4-2687-4D0D-AC76-62177262ED6F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{986ABBE2-796C-44C4-8403-2149B65A186B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,49 +36,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Categoria</t>
   </si>
   <si>
+    <t>Definicion</t>
+  </si>
+  <si>
     <t>referentes</t>
   </si>
   <si>
+    <t>testimonio1</t>
+  </si>
+  <si>
+    <t>testimonio2</t>
+  </si>
+  <si>
+    <t>testimonio3</t>
+  </si>
+  <si>
+    <t>testimonio4</t>
+  </si>
+  <si>
     <t>Violencia simbólica</t>
   </si>
   <si>
+    <t xml:space="preserve">Se produce de manera indirecta, desde la relación asimétrica que se establece en el aula. En esta, el violentado no es consciente de dichas prácticas, convirtiéndose en cómplice indirecto de las dinámicas de transgresión. </t>
+  </si>
+  <si>
+    <t>Bartel y Cameron (2002), como ejemplo mencionan la frustración docente, que sucede cuando el estudiante no cumple con las expectativas impuestas. El profesor mantiene su principal expresión artística a través de los estudiantes, ocasionando falta de empatía y poco o nulo espacio para el error. </t>
+  </si>
+  <si>
     <t xml:space="preserve">“...él me vio llorar en clase, y años después le dijo a otra estudiante: ‘¿[esa persona] todavía llora cuando toca?’” (Entrevista 6. 05 de febrero de 2025, 1:01 p.m., Barrio Villa Alsacia) </t>
   </si>
   <si>
-    <t xml:space="preserve">“Me dolía. No solo físicamente, sino que me dolía sentir que no era suficiente... que no me querían como música porque no cumplía sus expectativas.” (Entrevista 4. 14 de noviembre de 2024, 1:42 p.m., Cafetería Varietale Javeriana) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Mientras yo me masajeaba la cara, me preguntó qué me pasaba. Yo le dije: ‘no maestro, solo me duele la boca de la clase’. Y él me dijo que le dejara ver, y como que me toca la cara así… y lo que hizo después fue agarrarme la cara con las dos manos y lanzarse a besarme. Yo le empujé… quedé en shock y yo estaba sola. Yo dije, ¿qué hago? Estoy re vulnerable… solo quería irme.” (Entrevista 1. 16 de octubre de 2024, 9:54 a.m., Cafetería Onza) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Yo estaba esperando, era un golpe o quién sabe qué, porque así era en el conservatorio... yo me equivocaba y él me pellizcaba. [...] Un día cogió el atril del director, el grande, lo cerró y ¡pum! me pegó en el pie con el atril. Se me cayeron las dos uñas de los pies.” (Entrevista 2. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
-  </si>
-  <si>
     <t>Violencia Psicológica</t>
-  </si>
-  <si>
-    <t>Violencia de Género y Sexual</t>
-  </si>
-  <si>
-    <t>Violencia Física</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se produce de manera indirecta, desde la relación asimétrica que se establece en el aula. En esta, el violentado no es consciente de dichas prácticas, convirtiéndose en cómplice indirecto de las dinámicas de transgresión. </t>
-  </si>
-  <si>
-    <t>Bartel y Cameron (2002), como ejemplo mencionan la frustración docente, que sucede cuando el estudiante no cumple con las expectativas impuestas. El profesor mantiene su principal expresión artística a través de los estudiantes, ocasionando falta de empatía y poco o nulo espacio para el error. </t>
-  </si>
-  <si>
-    <t>Según Fernández (2018) este tipo de violencia permanece como un tema tabú conduciendo a la normalización de estas prácticas inadecuadas</t>
   </si>
   <si>
     <t>Se entiende como aquellos actos que conllevan a la
 desvalorización y disminución de un individuo. Las investigaciones al respecto son escasas y en algunas ocasiones silenciadas.</t>
+  </si>
+  <si>
+    <t>Según Fernández (2018) este tipo de violencia permanece como un tema tabú conduciendo a la normalización de estas prácticas inadecuadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Me dolía. No solo físicamente, sino que me dolía sentir que no era suficiente... que no me querían como música porque no cumplía sus expectativas.” (Entrevista 4. 14 de noviembre de 2024, 1:42 p.m., Cafetería Varietale Javeriana) </t>
+  </si>
+  <si>
+    <t>Violencia de Género y Sexual</t>
   </si>
   <si>
     <t>Como lo expone el Ministerio de Educación Nacional
@@ -92,7 +98,22 @@
 Fernández (2018) indica que en las instituciones de formación instrumental existe una o Percepción de jerarquía y poder ejercida por los profesores, que explicaría buena parte de la violencia académica (...) En este caso la violencia psicológica queda incluso sobrepasada al apuntar a la existencia de casos de acoso y violencia sexual. (...) Podría afirmarse que se trata posiblemente del mayor tabú que existe alrededor de estas enseñanzas (Fernández, 2018. p. 18) </t>
   </si>
   <si>
-    <t>Violencia Verbal</t>
+    <t xml:space="preserve">“Mientras yo me masajeaba la cara, me preguntó qué me pasaba. Yo le dije: ‘no maestro, solo me duele la boca de la clase’. Y él me dijo que le dejara ver, y como que me toca la cara así… y lo que hizo después fue agarrarme la cara con las dos manos y lanzarse a besarme. Yo le empujé… quedé en shock y yo estaba sola. Yo dije, ¿qué hago? Estoy re vulnerable… solo quería irme.” (Entrevista 1. 16 de octubre de 2024, 9:54 a.m., Cafetería Onza) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Entonces no, mi profesor empezaba ahí como a decirme como es que yo no entiendo por qué aquí admiten mujeres si yo, las mujeres no sirven para tocar flauta, eso es un instrumento pa’ machos, pa’ varones, pa’ hombres..."
+ (Entrevista 2. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “maestro, me puedo tocar, me puedo quitar la chaqueta para tocar?” ... “es que yo no entiendo tú por qué usas chaqueta, si es que tú estás muy buena, tú no necesitas ropa para tocar, tú puedes tocar si quieres sin nada”.
+  (Entrevista 1. 16 de octubre de 2024, 9:54 a.m., Cafetería Onza) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "...Hacía muy poco, había descubierto que ella tenía como sus no recuerdo muy bien el término, pero sus hormonas masculinas estaban mucho más elevadas que sus hormonas femeninas, entonces ella tenía como un poquito de barba y un poquito de bigote pero bastante notorio y yo no sé qué profesor le dijo como ay pues el profe porque no se quita eso que no sé qué es que por eso es que usted hace las cosas así, porque en realidad es una machorra que no sé qué o sea, cosas así horrible y ella no volvió. No puedo cambiar de profesor, entonces se retiró..."
+ (Entrevista 2. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
+  </si>
+  <si>
+    <t>Violencia Física</t>
   </si>
   <si>
     <t xml:space="preserve">Se entiende como aquella violencia que implica el
@@ -101,6 +122,45 @@
   <si>
     <t>Fernández (2018) refiere al respecto que o esta mentalidad, donde a veces parece que un profesor, para convertirse en un verdadero maestro tiene que ser irascible, rudo, agresivo y emocionalmente
 violento, (...) pueden provocar un efecto devastador en cualquier organización artística, de manera que contribuya de manera decisiva en una alta tasa de incidencia de conductas de violencia o acoso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Yo estaba esperando, era un golpe o quién sabe qué, porque así era en el conservatorio... yo me equivocaba y él me pellizcaba. [...] Un día cogió el atril del director, el grande, lo cerró y ¡pum! me pegó en el pie con el atril. Se me cayeron las dos uñas de los pies.” (Entrevista 2. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"...yo veía que los de saxofón se rotaban entre sí un par de canillas, esas de hockey, y uf está intentando quién sabe que, se las ponen bueno y ya cuando uno se va hablando con la gente y les pregunté cómo y ustedes por qué tienen canillas? ¿Así como no? Pues porque como el profesor nos da unas patadas ni las hijuemadre, entonces entre todos ahorramos y nos compramos eso..."
+(Entrevista 2. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Yo me acuerdo que un muchacho de pasto me acuerdo que le pegaba súper duro en las costillas que para que abriera más. Le hacía así con esta parte de la mano (me señala la parte baja de la muñeca le pegaba en el pecho), pero hágale hermano..."
+(Entrevista 2. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
+  </si>
+  <si>
+    <t>"...como a la mamá no le gustaba que ella estudiara música, la mamá le estrelló la guitarra contra una pared y la rompió, entonces yo le dije que se llevara mi guitarra...
+(Entrevista 6. 19 de Marzo de 2025 11:30 am
+Universidad Pedagógica Nacional - Bellas Artes)</t>
+  </si>
+  <si>
+    <t>Violencia Verbal</t>
+  </si>
+  <si>
+    <t>Es el uso del lenguaje para humillar, intimidar o menospreciar.
+Puede presentarse como gritos, sarcasmo, burlas, amenazas, comentarios sexistas o despectivos.
+Muchas veces se disfraza de exigencia, sinceridad o carácter fuerte, y por eso se normaliza en entornos artísticos.</t>
+  </si>
+  <si>
+    <t>Fernández (2018): denuncia cómo el lenguaje agresivo se justifica como “disciplina” o “exigencia” dentro de la educación musical.
+Russo (2008): analiza cómo los discursos violentos afectan la identidad y el deseo de continuidad en los estudiantes.
+MEN (2022): establece que el uso de lenguaje violento constituye una forma de maltrato escolar que debe prevenirse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"...ahorita me empiezo a acordar de muchas cosas que que pasaban en la clase, por ejemplo una persona se ha equivocado en algún punto entonces, como que ay se se una chica, me acuerdo, se deprimía, ay no es que no puedo lo que sea y entonces qué va a hacer? Se va a poner a llorar, entonces váyase váyase que sabe que le va mejor vendiendo empanadas aquí en la esquina..."
+(Entrevista 2. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Yo tenía huevo y ya en las últimas clases él me decía, es que yo no sé tú para qué te vas a presentar si tú no vas a pasar, no deberías presentarte, no te presentes porque es que no vas a pasar, no pierdas la plata"
+(Entrevista 1. 16 de Octubre de 2024 9:55 am
+Cafeteria Onza (cr 9 #75 – 02 – Local 1)
+</t>
   </si>
   <si>
     <t>Violencia Institucional</t>
@@ -116,46 +176,20 @@
 Kingsbury: crítica a la rigidez jerárquica en los conservatorios como espacio simbólico e institucional.</t>
   </si>
   <si>
-    <t>Es el uso del lenguaje para humillar, intimidar o menospreciar.
-Puede presentarse como gritos, sarcasmo, burlas, amenazas, comentarios sexistas o despectivos.
-Muchas veces se disfraza de exigencia, sinceridad o carácter fuerte, y por eso se normaliza en entornos artísticos.</t>
-  </si>
-  <si>
-    <t>“Las mujeres no sirven para tocar flauta.”
-“Más que exigente, también rayaba en lo grosero.”
-“Me decía que no entendía cómo me habían admitido.”</t>
-  </si>
-  <si>
-    <t>Fernández (2018): denuncia cómo el lenguaje agresivo se justifica como “disciplina” o “exigencia” dentro de la educación musical.
-Russo (2008): analiza cómo los discursos violentos afectan la identidad y el deseo de continuidad en los estudiantes.
-MEN (2022): establece que el uso de lenguaje violento constituye una forma de maltrato escolar que debe prevenirse.</t>
-  </si>
-  <si>
     <t>“Todo el mundo sabía, pero nadie hizo nada.”
 “Dijeron que yo malinterpreté las cosas.”
 “El profesor fue defendido por la universidad.”</t>
   </si>
   <si>
-    <t>Definicion</t>
-  </si>
-  <si>
-    <t>testimonio1</t>
-  </si>
-  <si>
-    <t>testimonio2</t>
-  </si>
-  <si>
-    <t>testimonio3</t>
-  </si>
-  <si>
-    <t>testimonio4</t>
+    <t>"Y ese es el otro gran problema. Es como si tú sabes que tal profesor abusa verbalmente de los estudiantes, pero yo no fui a clase, entonces ay bueno, pues ahí nos cubrimos y nadie dice nada y los que coordinan no dicen nada porque tampoco ni coordinan, o sea están ahí como ahhh."
+(Entrevista 5.  05 de Febrero de  2025 1:41 pm (Localidad Kenedy - Bogotá)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +224,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -228,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -244,6 +284,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -582,181 +625,359 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5643FC0-52CC-448B-BE1F-986D6030C29E}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5546875" customWidth="1"/>
-    <col min="3" max="3" width="56.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="51" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="72.75">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="72.75">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="288.75">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="188.25">
+      <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="5" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="174">
+      <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="174">
       <c r="A7" s="6" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>25</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A031DE49FF6AC24E9E8DB1FFB7225688" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="eb646b357d0147fb88911241081893a8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1760acc8-384a-4472-bdc3-18b80a4d69a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fc756ee26d1bf6336a163974727d4d6" ns2:_="">
+    <xsd:import namespace="1760acc8-384a-4472-bdc3-18b80a4d69a9"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1760acc8-384a-4472-bdc3-18b80a4d69a9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBD31563-A017-4B0C-A070-0CB89639C545}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC3905-9DF5-4BE4-A4C5-899053F86412}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2301CEF3-C09A-47AD-9EB7-133405CC57B7}"/>
 </file>
--- a/tablaFinal.xlsx
+++ b/tablaFinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer Nitro\Documents\tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{F86E6D4F-1816-4EBA-BCAF-6A31FB305C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A1E4BE4-2687-4D0D-AC76-62177262ED6F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0AA5563-F14F-4894-B6B7-267F3F687AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{986ABBE2-796C-44C4-8403-2149B65A186B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Categoria</t>
   </si>
@@ -68,49 +68,287 @@
     <t>Bartel y Cameron (2002), como ejemplo mencionan la frustración docente, que sucede cuando el estudiante no cumple con las expectativas impuestas. El profesor mantiene su principal expresión artística a través de los estudiantes, ocasionando falta de empatía y poco o nulo espacio para el error. </t>
   </si>
   <si>
-    <t xml:space="preserve">“...él me vio llorar en clase, y años después le dijo a otra estudiante: ‘¿[esa persona] todavía llora cuando toca?’” (Entrevista 6. 05 de febrero de 2025, 1:01 p.m., Barrio Villa Alsacia) </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">“...él me vio llorar en clase, y años después le dijo a otra estudiante: ‘¿[esa persona] todavía llora cuando toca?’” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Entrevista. 05 de febrero de 2025, 1:01 p.m., Localidad Kenedy) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"... yo no sé, yo siento que él él empezó, o sea ya con el tiempo la reflexión que yo doy es cómo... él veía de pronto lo que él no pudo hacer y lo que yo podría hacer con (el instrumento)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Entrevista. 05 de febrero de 2025, 1:01 p.m., Localidad Kenedy) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"... yo seguí tomando las clases particulares con (el profesor), porque digamos que en mi mente era como que, pues sí funciona, a la final ella pasó..."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Entrevista. 16 de octubre de 2024, 9:54 a.m., Cafetería Onza) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Entonces no como que no, no mi maestro, mi maestro maestro y para esa misma época, pues era lo que es que estaba pasando todo esto del conservatorio, que todo eso, o sea como que todas esas cosas estaban pasando y nadie nunca decía nada porque era como la cultura. No sé, no sé la naturaleza como del mismo ambiente.'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Entrevista. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
+    </r>
   </si>
   <si>
     <t>Violencia Psicológica</t>
   </si>
   <si>
-    <t>Se entiende como aquellos actos que conllevan a la
-desvalorización y disminución de un individuo. Las investigaciones al respecto son escasas y en algunas ocasiones silenciadas.</t>
+    <t>Se entiende como aquellos actos que conllevan a la desvalorización y disminución de un individuo. Las investigaciones al respecto son escasas y en algunas ocasiones silenciadas.</t>
   </si>
   <si>
     <t>Según Fernández (2018) este tipo de violencia permanece como un tema tabú conduciendo a la normalización de estas prácticas inadecuadas</t>
   </si>
   <si>
-    <t xml:space="preserve">“Me dolía. No solo físicamente, sino que me dolía sentir que no era suficiente... que no me querían como música porque no cumplía sus expectativas.” (Entrevista 4. 14 de noviembre de 2024, 1:42 p.m., Cafetería Varietale Javeriana) </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">“Me dolía. No solo físicamente, sino que me dolía sentir que no era suficiente... que no me querían como música porque no cumplía sus expectativas.” 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Entrevista. 14 de noviembre de 2024, 1:42 p.m., Cafetería Varietale Javeriana) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Entonces era muy horrible y yo estudiaba un montón yo, pues siempre trataba de ser como muy juiciosa y todo lo demás y yo estudiaba y estudiaba, y nunca, nunca nada era nunca nada estaba bien. O sea, en los años que yo estudié allá que fueron  años básicamente.
+De eh  el básico no dos del básico ya antes de entrar a carrera y  de carrera en esos  años yo creo que una vez escuché bien, ni siquiera muy bien, sino bueno, pues bien sí?"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Entrevista. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"(el profesor) nada tenía que ver con arte, con música o con clarinete, era ser una copia de él y tocar como él toca y todo lo que yo proponía a él no le gustaba y no es que no le gustaba, es que no se podía, ni siquiera me dejaba proponer"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Entrevista. 16 de octubre de 2024, 9:54 a.m., Cafetería Onza) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Pero mi hermana tuvo un suceso en el colegio como que le dijeron, usted no es buena para esto y ella nunca tocó la guitarra."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Entrevista. 05 de febrero de 2025, 1:01 p.m., Localidad Kenedy) </t>
+    </r>
   </si>
   <si>
     <t>Violencia de Género y Sexual</t>
   </si>
   <si>
-    <t>Como lo expone el Ministerio de Educación Nacional
-(2022), se define “como cualquier acto, conducta o amenaza de violencia contra
-alguien, que basado en relaciones de desigualdad y discriminación por su sexo
-(...), puede ocasionar la muerte, el daño físico, sexual o psicológico, tanto en
-ámbitos públicos como privados”.</t>
+    <t>Como lo expone el Ministerio de Educación Nacional (2022), se define “como cualquier acto, conducta o amenaza de violencia contra
+alguien, que basado en relaciones de desigualdad y discriminación por su sexo (...), puede ocasionar la muerte, el daño físico, sexual o psicológico, tanto en ámbitos públicos como privados”.</t>
   </si>
   <si>
     <t xml:space="preserve"> Russo (2008) manifiesta que el no tener claro una política que prohíba este tipo de violencia da paso a cualquier forma de acoso y que este debe dar plena garantía y resolución efectiva a la persona que denuncia y al denunciado. 
 Fernández (2018) indica que en las instituciones de formación instrumental existe una o Percepción de jerarquía y poder ejercida por los profesores, que explicaría buena parte de la violencia académica (...) En este caso la violencia psicológica queda incluso sobrepasada al apuntar a la existencia de casos de acoso y violencia sexual. (...) Podría afirmarse que se trata posiblemente del mayor tabú que existe alrededor de estas enseñanzas (Fernández, 2018. p. 18) </t>
   </si>
   <si>
-    <t xml:space="preserve">“Mientras yo me masajeaba la cara, me preguntó qué me pasaba. Yo le dije: ‘no maestro, solo me duele la boca de la clase’. Y él me dijo que le dejara ver, y como que me toca la cara así… y lo que hizo después fue agarrarme la cara con las dos manos y lanzarse a besarme. Yo le empujé… quedé en shock y yo estaba sola. Yo dije, ¿qué hago? Estoy re vulnerable… solo quería irme.” (Entrevista 1. 16 de octubre de 2024, 9:54 a.m., Cafetería Onza) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Entonces no, mi profesor empezaba ahí como a decirme como es que yo no entiendo por qué aquí admiten mujeres si yo, las mujeres no sirven para tocar flauta, eso es un instrumento pa’ machos, pa’ varones, pa’ hombres..."
- (Entrevista 2. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “maestro, me puedo tocar, me puedo quitar la chaqueta para tocar?” ... “es que yo no entiendo tú por qué usas chaqueta, si es que tú estás muy buena, tú no necesitas ropa para tocar, tú puedes tocar si quieres sin nada”.
-  (Entrevista 1. 16 de octubre de 2024, 9:54 a.m., Cafetería Onza) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "...Hacía muy poco, había descubierto que ella tenía como sus no recuerdo muy bien el término, pero sus hormonas masculinas estaban mucho más elevadas que sus hormonas femeninas, entonces ella tenía como un poquito de barba y un poquito de bigote pero bastante notorio y yo no sé qué profesor le dijo como ay pues el profe porque no se quita eso que no sé qué es que por eso es que usted hace las cosas así, porque en realidad es una machorra que no sé qué o sea, cosas así horrible y ella no volvió. No puedo cambiar de profesor, entonces se retiró..."
- (Entrevista 2. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">“Mientras yo me masajeaba la cara, me preguntó qué me pasaba. Yo le dije: ‘no maestro, solo me duele la boca de la clase’. Y él me dijo que le dejara ver, y como que me toca la cara así… y lo que hizo después fue agarrarme la cara con las dos manos y lanzarse a besarme. Yo le empujé… quedé en shock y yo estaba sola. Yo dije, ¿qué hago? Estoy re vulnerable… solo quería irme.” 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Entrevista. 16 de octubre de 2024, 9:54 a.m., Cafetería Onza) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Entonces no, mi profesor empezaba ahí como a decirme como es que yo no entiendo por qué aquí admiten mujeres si yo, las mujeres no sirven para tocar flauta, eso es un instrumento pa’ machos, pa’ varones, pa’ hombres..."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Entrevista. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> “maestro, me puedo quitar la chaqueta para tocar?” ... (contesta el profesor) “es que yo no entiendo tú por qué usas chaqueta, si es que tú estás muy buena, tú no necesitas ropa para tocar, tú puedes tocar si quieres sin nada”.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Entrevista. 16 de octubre de 2024, 9:54 a.m., Cafetería Onza) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "...Hacía muy poco, había descubierto que ella tenía como sus no recuerdo muy bien el término, pero sus hormonas masculinas estaban mucho más elevadas que sus hormonas femeninas, entonces ella tenía como un poquito de barba y un poquito de bigote pero bastante notorio y yo no sé qué profesor le dijo como ay pues el profe porque no se quita eso que no sé qué es que por eso es que usted hace las cosas así, porque en realidad es una machorra que no sé qué o sea, cosas así horrible y ella no volvió. No puedo cambiar de profesor, entonces se retiró..."
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Entrevista. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
+    </r>
   </si>
   <si>
     <t>Violencia Física</t>
@@ -124,20 +362,89 @@
 violento, (...) pueden provocar un efecto devastador en cualquier organización artística, de manera que contribuya de manera decisiva en una alta tasa de incidencia de conductas de violencia o acoso.</t>
   </si>
   <si>
-    <t xml:space="preserve">“Yo estaba esperando, era un golpe o quién sabe qué, porque así era en el conservatorio... yo me equivocaba y él me pellizcaba. [...] Un día cogió el atril del director, el grande, lo cerró y ¡pum! me pegó en el pie con el atril. Se me cayeron las dos uñas de los pies.” (Entrevista 2. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"...yo veía que los de saxofón se rotaban entre sí un par de canillas, esas de hockey, y uf está intentando quién sabe que, se las ponen bueno y ya cuando uno se va hablando con la gente y les pregunté cómo y ustedes por qué tienen canillas? ¿Así como no? Pues porque como el profesor nos da unas patadas ni las hijuemadre, entonces entre todos ahorramos y nos compramos eso..."
-(Entrevista 2. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Yo me acuerdo que un muchacho de pasto me acuerdo que le pegaba súper duro en las costillas que para que abriera más. Le hacía así con esta parte de la mano (me señala la parte baja de la muñeca le pegaba en el pecho), pero hágale hermano..."
-(Entrevista 2. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
-  </si>
-  <si>
-    <t>"...como a la mamá no le gustaba que ella estudiara música, la mamá le estrelló la guitarra contra una pared y la rompió, entonces yo le dije que se llevara mi guitarra...
-(Entrevista 6. 19 de Marzo de 2025 11:30 am
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">“Yo estaba esperando, era un golpe o quién sabe qué, porque así era en el conservatorio... yo me equivocaba y él me pellizcaba. [...] Un día cogió el atril del director, el grande, lo cerró y ¡pum! me pegó en el pie con el atril. Se me cayeron las dos uñas de los pies.” 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Entrevista. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"...yo veía que los de saxofón se rotaban entre sí un par de canillas, esas de hockey, y uf está intentando quién sabe que, se las ponen bueno y ya cuando uno se va hablando con la gente y les pregunté cómo y ustedes por qué tienen canillas? ¿Así como no? Pues porque como el profesor nos da unas patadas ni las hijuemadre, entonces entre todos ahorramos y nos compramos eso..."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Entrevista. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Yo me acuerdo que un muchacho de pasto me acuerdo que le pegaba súper duro en las costillas que para que abriera más. Le hacía así con esta parte de la mano (me señala la parte baja de la muñeca le pegaba en el pecho), pero hágale hermano..."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Entrevista. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"...como a la mamá no le gustaba que ella estudiara música, la mamá le estrelló la guitarra contra una pared y la rompió, entonces yo le dije que se llevara mi guitarra...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Entrevista. 19 de Marzo de 2025 11:30 am
 Universidad Pedagógica Nacional - Bellas Artes)</t>
+    </r>
   </si>
   <si>
     <t>Violencia Verbal</t>
@@ -153,14 +460,91 @@
 MEN (2022): establece que el uso de lenguaje violento constituye una forma de maltrato escolar que debe prevenirse.</t>
   </si>
   <si>
-    <t xml:space="preserve">"...ahorita me empiezo a acordar de muchas cosas que que pasaban en la clase, por ejemplo una persona se ha equivocado en algún punto entonces, como que ay se se una chica, me acuerdo, se deprimía, ay no es que no puedo lo que sea y entonces qué va a hacer? Se va a poner a llorar, entonces váyase váyase que sabe que le va mejor vendiendo empanadas aquí en la esquina..."
-(Entrevista 2. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Yo tenía huevo y ya en las últimas clases él me decía, es que yo no sé tú para qué te vas a presentar si tú no vas a pasar, no deberías presentarte, no te presentes porque es que no vas a pasar, no pierdas la plata"
-(Entrevista 1. 16 de Octubre de 2024 9:55 am
-Cafeteria Onza (cr 9 #75 – 02 – Local 1)
-</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"...ahorita me empiezo a acordar de muchas cosas que que pasaban en la clase, por ejemplo una persona se ha equivocado en algún punto entonces, como que ay se se una chica, me acuerdo, se deprimía, ay no es que no puedo lo que sea y entonces qué va a hacer? Se va a poner a llorar, entonces váyase váyase que sabe que le va mejor vendiendo empanadas aquí en la esquina..."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Entrevista. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"...y ella siempre salía llorando por los comentarios que él hacía, porque les comentarios que él le hacía a ella he... eran muy, muy humillativos, como: “usted tiene tantos años, los demás tienen tantos años. Usted no va a ser capaz de llegar a ese nivel y hacer tal cosa si no va a pasar la carrera tal otra, etcétera”
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Entrevista. 16 de octubre de 2024, 9:54 a.m., Cafetería Onza) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Yo tenía huevo y ya en las últimas clases él me decía, es que yo no sé tú para qué te vas a presentar si tú no vas a pasar, no deberías presentarte, no te presentes porque es que no vas a pasar, no pierdas la plata"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Entrevista. 16 de Octubre de 2024 9:55 am
+Cafeteria Onza (cr 9 #75 – 02 – Local 1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"En gramática también me acuerdo (nombra al profesor) en solfeo también alguien se equivocaba, usted es estúpido o qué? Aquí dice sol que no sé qué.
+Claro para ti, entonces, qué nota hay ahí? Se equivocaba cualquier persona. ¿Qué acordes? Este no tal y era otro, pero qué bobo eres así como cosas así, qué tonto eres."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Entrevista. 16 de Octubre de 2024 9:55 am
+Cafeteria Onza (cr 9 #75 – 02 – Local 1)</t>
+    </r>
   </si>
   <si>
     <t>Violencia Institucional</t>
@@ -176,20 +560,95 @@
 Kingsbury: crítica a la rigidez jerárquica en los conservatorios como espacio simbólico e institucional.</t>
   </si>
   <si>
-    <t>“Todo el mundo sabía, pero nadie hizo nada.”
-“Dijeron que yo malinterpreté las cosas.”
-“El profesor fue defendido por la universidad.”</t>
-  </si>
-  <si>
-    <t>"Y ese es el otro gran problema. Es como si tú sabes que tal profesor abusa verbalmente de los estudiantes, pero yo no fui a clase, entonces ay bueno, pues ahí nos cubrimos y nadie dice nada y los que coordinan no dicen nada porque tampoco ni coordinan, o sea están ahí como ahhh."
-(Entrevista 5.  05 de Febrero de  2025 1:41 pm (Localidad Kenedy - Bogotá)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"El problema es que la coordinación está ahí, hay algo que no está haciendo clic entonces es lo mismo, es el profesor que llega tarde que trata mal al otro, pero que está responsable de ir a mirar si se está haciendo las cosas, pero no hace nada y el vulnerable, pues siempre va a ser el estudiante"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Entrevista.  05 de Febrero de  2025 1:41 pm (Localidad Kenedy - Bogotá)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Y ese es el otro gran problema. Es como si tú sabes que tal profesor abusa verbalmente de los estudiantes, pero yo no fui a clase, entonces ay bueno, pues ahí nos cubrimos y nadie dice nada y los que coordinan no dicen nada porque tampoco ni coordinan, o sea están ahí como ahhh."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Entrevista.  05 de Febrero de  2025 1:41 pm (Localidad Kenedy - Bogotá)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Pero yo siempre sentí también y era algo que veía que había visto en el otro colegio y no, eso importa y era que no, pues que tampoco tomaban acción, entonces era como si dígame todo lo que quiera, pero al final lo principal siempre va a estar ahí, entonces yo los sentía a ellos muy así como para qué hablamos si no nos ponen ni cuidado cuando nos quedamos solos acababa de ser peor porque vamos a quedar expuestos con él."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Entrevista.  05 de Febrero de  2025 1:41 pm (Localidad Kenedy - Bogotá) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Nada, por más que tú lo pongas en, yo he sabido de de muchachos que también se quejan de el trato del profesor de muchas cosas y lo escriben en la evaluación docente que es como el único mecanismo que ellos tienen para decir, no estoy de acuerdo con pero nada pasa."
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Entrevista. 18 de octubre de 2024, 10:54 a.m., Cafetería Onza) </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,14 +678,19 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -286,7 +750,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -625,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5643FC0-52CC-448B-BE1F-986D6030C29E}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -663,123 +1127,143 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="72.75">
+    <row r="2" spans="1:7" ht="201.75">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="72.75">
+    <row r="3" spans="1:7" ht="216.75">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="288.75">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="188.25">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="174">
+    <row r="6" spans="1:7" ht="216.75">
       <c r="A6" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="174">
+    <row r="7" spans="1:7" ht="260.25">
       <c r="A7" s="6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
